--- a/downloaded_files/GENS341_Tutorial-35082.xlsx
+++ b/downloaded_files/GENS341_Tutorial-35082.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Saleh Hussein Hassan Khalil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200933</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد محمد سعيد خالد الناظر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Mohamed Said Khaled Elnazer</x:t>
   </x:si>
   <x:si>
     <x:t>1230037</x:t>
@@ -299,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -786,7 +777,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6691932523</x:v>
+        <x:v>45907.4364104514</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -818,7 +809,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4364104514</x:v>
+        <x:v>45915.5089675579</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.5089675579</x:v>
+        <x:v>45909.6415517361</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6415517361</x:v>
+        <x:v>45907.4455952199</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4455952199</x:v>
+        <x:v>45906.6644450579</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6644450579</x:v>
+        <x:v>45907.4213738079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4213738079</x:v>
+        <x:v>45907.4152352199</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4152352199</x:v>
+        <x:v>45906.665312581</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.665312581</x:v>
+        <x:v>45907.4169468403</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4169468403</x:v>
+        <x:v>45906.6652256134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45906.7908040856</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.7908040856</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45906.6652190972</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1187,38 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45906.6652190972</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS341_Tutorial-35082.xlsx
+++ b/downloaded_files/GENS341_Tutorial-35082.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Zeiad ahmed galal gaafar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليمان عبدالحكم احمد سليمان عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Soliman AbdelHakam Ahmed Soliman Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1220247</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -809,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.5089675579</x:v>
+        <x:v>45909.6415517361</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6415517361</x:v>
+        <x:v>45907.4455952199</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4455952199</x:v>
+        <x:v>45906.6644450579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6644450579</x:v>
+        <x:v>45907.4213738079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4213738079</x:v>
+        <x:v>45907.4152352199</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4152352199</x:v>
+        <x:v>45906.665312581</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.665312581</x:v>
+        <x:v>45907.4169468403</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4169468403</x:v>
+        <x:v>45906.6652256134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45906.7908040856</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7908040856</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45906.6652190972</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45906.6652190972</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS341_Tutorial-35082.xlsx
+++ b/downloaded_files/GENS341_Tutorial-35082.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mostafa Hashim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منة الله أشرف مصطفي محمد خضر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menna/tallah Ashraf Mustafa Khedr</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45906.6652190972</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
